--- a/src/main/resources/template/excel/export/sysOperateLogExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/sysOperateLogExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L3")</t>
+          <t>jx:area(lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -56,11 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>机构资料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -78,75 +74,49 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.costAvgYear}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属分公司</t>
-  </si>
-  <si>
-    <t>${obj.parentName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用均摊年数</t>
-  </si>
-  <si>
-    <t>日盈亏平衡点</t>
-  </si>
-  <si>
-    <t>${obj.monthStr}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>开店成本</t>
-  </si>
-  <si>
-    <t>${obj.fixedTotalAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.fixedAvgAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月均开店成本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月固定开支</t>
-  </si>
-  <si>
-    <t>${obj.monthChargeAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月销售额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月毛利率</t>
-  </si>
-  <si>
-    <t>${obj.grossProfitRateStr}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月盈亏平衡点</t>
-  </si>
-  <si>
-    <t>${obj.bepMonth}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.bepDay}</t>
+    <t>操作员</t>
+  </si>
+  <si>
+    <t>${obj.createUserName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能名称</t>
+  </si>
+  <si>
+    <t>${obj.operateName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>修改类型</t>
+  </si>
+  <si>
+    <t>${obj.operateTypeStr}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改值</t>
+  </si>
+  <si>
+    <t>${obj.title}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作描述</t>
+  </si>
+  <si>
+    <t>${obj.content}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.createTimeStr}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -273,9 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,119 +551,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="11" width="20.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="69.125" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
